--- a/formatos/formato-productos.xlsx
+++ b/formatos/formato-productos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B13CC5-D86E-44F6-8BBD-A2395E729759}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C8A484-6FA9-40D5-B416-644B6FF350CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,12 +78,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,7 +101,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,18 +417,16 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
